--- a/coding/neetcode.xlsx
+++ b/coding/neetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rraymondy/Desktop/sde_preparation/coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F982067-1B3F-BB45-BBDC-BFA250A2AD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F1DFFB8-11B4-3843-A113-2C994E914B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{96F4A006-5718-D540-B825-C55DE39DA615}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19600" xr2:uid="{96F4A006-5718-D540-B825-C55DE39DA615}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="103">
   <si>
     <t>Problem</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>T-O(n); S-O(n)</t>
-  </si>
-  <si>
-    <t>revise the video</t>
   </si>
   <si>
     <t>T-O(n); S-O(n); We don’t need to initialize the hashmap. We can solve it with only one pass. The key is that there is exactly one solution, and the elements are not unique.</t>
@@ -245,6 +242,120 @@
   </si>
   <si>
     <t>✅ with hint, BUT not optimal</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>T-O(logn); S-O(1)</t>
+  </si>
+  <si>
+    <t>** 74. Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>T-O(log(m*n)); S-O(1); quotient and remainder</t>
+  </si>
+  <si>
+    <t>** 875. Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>T-O(log(max(piles)); S-O(1);</t>
+  </si>
+  <si>
+    <t>Binary Search - find the right boundary</t>
+  </si>
+  <si>
+    <t>** 33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>My sol: I tried to find the rotated point.</t>
+  </si>
+  <si>
+    <t>follow up: different way to find the rotated point</t>
+  </si>
+  <si>
+    <t>Always make sure which condition matchs the result. Here if we want to find origin `nums[0]`, we know it is less than nums[k], which is the condition of moving right pointer, so the result should stay consistent with right pointer. If we do `r = m - 1`, the result should be r + 1; elif we do `r = m`, the result should be r.</t>
+  </si>
+  <si>
+    <t>not optimal, but more straightforward</t>
+  </si>
+  <si>
+    <t>*** 154. Find Minimum in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>** 153. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>different, review the video</t>
+  </si>
+  <si>
+    <t>review the video</t>
+  </si>
+  <si>
+    <t>The stop condition is quite tricky for my own solution</t>
+  </si>
+  <si>
+    <t>* 206. Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Iterative: T-O(n); S-O(1); Recursive: T-O(n); S-O(n);</t>
+  </si>
+  <si>
+    <t>* 21. Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>T-O(m + n); S-O(1)</t>
+  </si>
+  <si>
+    <t>** 143. Reorder List</t>
+  </si>
+  <si>
+    <t>Linked List; Slow Fast pointers</t>
+  </si>
+  <si>
+    <t>T-O(n); S-O(1); DON'T  FORGET CUT THE LINKLIST FROM THE MIDDLE POINTER.</t>
+  </si>
+  <si>
+    <t>T-O(n); S-O(1); cross it out, and reassign</t>
+  </si>
+  <si>
+    <t>** 19. Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>** 138. Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>T-O(n); S-O(1); FORGET THE RANDOM COULD BE NONE FOR THE FIRST TIME.</t>
+  </si>
+  <si>
+    <t>✅ My solution is much better</t>
+  </si>
+  <si>
+    <t>* 226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>swap</t>
+  </si>
+  <si>
+    <t>* 104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>leaf node</t>
+  </si>
+  <si>
+    <t>* 543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>* 110. Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>Early stop.</t>
   </si>
 </sst>
 </file>
@@ -279,7 +390,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +415,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7E79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -317,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -337,12 +454,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7E79"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -651,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B64EC3-0D27-B849-B83B-19B1A4B17824}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" x14ac:dyDescent="0.2"/>
@@ -715,57 +840,57 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -779,205 +904,406 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/coding/neetcode.xlsx
+++ b/coding/neetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rraymondy/Desktop/sde_preparation/coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F1DFFB8-11B4-3843-A113-2C994E914B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5939E027-165D-1248-B20D-91E9048B1F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19600" xr2:uid="{96F4A006-5718-D540-B825-C55DE39DA615}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19580" xr2:uid="{96F4A006-5718-D540-B825-C55DE39DA615}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
   <si>
     <t>Problem</t>
   </si>
@@ -356,6 +356,90 @@
   </si>
   <si>
     <t>Early stop.</t>
+  </si>
+  <si>
+    <t>* 100. Same Tree</t>
+  </si>
+  <si>
+    <t>* 572. Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>* 235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Kind of tricky</t>
+  </si>
+  <si>
+    <t>** 103. Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>I tried to avoid use .reverse() cuz it costs O(n). Instead, I control the deque()</t>
+  </si>
+  <si>
+    <t>** 102. Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>** 98. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>DFS top-down</t>
+  </si>
+  <si>
+    <t>Think about the boundary, update it.</t>
+  </si>
+  <si>
+    <t>** 230. Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>✅ Try iterative later</t>
+  </si>
+  <si>
+    <t>Follow up: add a property "size", then the time complecity becomes O(h) or O(log n)</t>
+  </si>
+  <si>
+    <t>** 105. Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>** 208. Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>store and retrieve keys</t>
+  </si>
+  <si>
+    <t>Design Data Structure</t>
+  </si>
+  <si>
+    <t>！</t>
+  </si>
+  <si>
+    <t>*** 295. Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>** 39. Combination Sum</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>! Combination, not permutation!</t>
+  </si>
+  <si>
+    <t>** 79. Word Search</t>
+  </si>
+  <si>
+    <t>Time: O(m * n * 4 ^ k)</t>
+  </si>
+  <si>
+    <t>** 200. Number of Islands</t>
+  </si>
+  <si>
+    <t>Time: O(m * n)</t>
   </si>
 </sst>
 </file>
@@ -776,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B64EC3-0D27-B849-B83B-19B1A4B17824}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" x14ac:dyDescent="0.2"/>
@@ -1306,6 +1390,173 @@
         <v>102</v>
       </c>
     </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
